--- a/output/state_grandtots_bothyears.xlsx
+++ b/output/state_grandtots_bothyears.xlsx
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>32965</v>
+        <v>36805</v>
       </c>
       <c r="C2">
-        <v>15519</v>
+        <v>19890</v>
       </c>
       <c r="D2">
         <v>120895</v>
@@ -423,16 +423,16 @@
         <v>31367</v>
       </c>
       <c r="F2">
-        <v>87930</v>
+        <v>84090</v>
       </c>
       <c r="G2">
-        <v>266.74</v>
+        <v>228.47</v>
       </c>
       <c r="H2">
-        <v>15848</v>
+        <v>11477</v>
       </c>
       <c r="I2">
-        <v>102.12</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="3">
@@ -442,28 +442,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>114770</v>
+        <v>165505</v>
       </c>
       <c r="C3">
-        <v>114755</v>
+        <v>165490</v>
       </c>
       <c r="D3">
-        <v>110888</v>
+        <v>110889</v>
       </c>
       <c r="E3">
         <v>63568</v>
       </c>
       <c r="F3">
-        <v>-3882</v>
+        <v>-54616</v>
       </c>
       <c r="G3">
-        <v>-3.38</v>
+        <v>-33</v>
       </c>
       <c r="H3">
-        <v>-51187</v>
+        <v>-101922</v>
       </c>
       <c r="I3">
-        <v>-44.61</v>
+        <v>-61.59</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>2317845</v>
+        <v>2325694</v>
       </c>
       <c r="C4">
-        <v>697539</v>
+        <v>802526</v>
       </c>
       <c r="D4">
         <v>3215097</v>
@@ -485,16 +485,16 @@
         <v>758720</v>
       </c>
       <c r="F4">
-        <v>897252</v>
+        <v>889403</v>
       </c>
       <c r="G4">
-        <v>38.71</v>
+        <v>38.24</v>
       </c>
       <c r="H4">
-        <v>61181</v>
+        <v>-43806</v>
       </c>
       <c r="I4">
-        <v>8.77</v>
+        <v>-5.46</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>10876647</v>
+        <v>10923038</v>
       </c>
       <c r="C5">
-        <v>1438961</v>
+        <v>1821848</v>
       </c>
       <c r="D5">
         <v>2991473</v>
@@ -516,16 +516,16 @@
         <v>2991473</v>
       </c>
       <c r="F5">
-        <v>-7885174</v>
+        <v>-7931565</v>
       </c>
       <c r="G5">
-        <v>-72.5</v>
+        <v>-72.61</v>
       </c>
       <c r="H5">
-        <v>1552512</v>
+        <v>1169625</v>
       </c>
       <c r="I5">
-        <v>107.89</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="6">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>3163936</v>
+        <v>3165002</v>
       </c>
       <c r="C6">
-        <v>422956</v>
+        <v>575690</v>
       </c>
       <c r="D6">
         <v>637259</v>
@@ -547,16 +547,16 @@
         <v>637259</v>
       </c>
       <c r="F6">
-        <v>-2526677</v>
+        <v>-2527743</v>
       </c>
       <c r="G6">
-        <v>-79.86</v>
+        <v>-79.87000000000001</v>
       </c>
       <c r="H6">
-        <v>214303</v>
+        <v>61569</v>
       </c>
       <c r="I6">
-        <v>50.67</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="7">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>19182</v>
+        <v>19836</v>
       </c>
       <c r="C8">
-        <v>13175</v>
+        <v>14042</v>
       </c>
       <c r="D8">
         <v>170167</v>
@@ -591,16 +591,16 @@
         <v>90520</v>
       </c>
       <c r="F8">
-        <v>150985</v>
+        <v>150331</v>
       </c>
       <c r="G8">
-        <v>787.12</v>
+        <v>757.87</v>
       </c>
       <c r="H8">
-        <v>77345</v>
+        <v>76478</v>
       </c>
       <c r="I8">
-        <v>587.06</v>
+        <v>544.64</v>
       </c>
     </row>
     <row r="9">
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>3854140</v>
+        <v>4132873</v>
       </c>
       <c r="C9">
-        <v>2009710</v>
+        <v>2443037</v>
       </c>
       <c r="D9">
         <v>5769408</v>
@@ -622,16 +622,16 @@
         <v>2479035</v>
       </c>
       <c r="F9">
-        <v>1915268</v>
+        <v>1636535</v>
       </c>
       <c r="G9">
-        <v>49.69</v>
+        <v>39.6</v>
       </c>
       <c r="H9">
-        <v>469325</v>
+        <v>35998</v>
       </c>
       <c r="I9">
-        <v>23.35</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="10">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>937293</v>
+        <v>1053153</v>
       </c>
       <c r="C10">
-        <v>831905</v>
+        <v>949515</v>
       </c>
       <c r="D10">
         <v>2344264</v>
@@ -653,16 +653,16 @@
         <v>1452806</v>
       </c>
       <c r="F10">
-        <v>1406971</v>
+        <v>1291111</v>
       </c>
       <c r="G10">
-        <v>150.11</v>
+        <v>122.59</v>
       </c>
       <c r="H10">
-        <v>620901</v>
+        <v>503291</v>
       </c>
       <c r="I10">
-        <v>74.64</v>
+        <v>53.01</v>
       </c>
     </row>
     <row r="11">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>483691</v>
+        <v>503686</v>
       </c>
       <c r="C11">
-        <v>319824</v>
+        <v>350934</v>
       </c>
       <c r="D11">
         <v>785173</v>
@@ -684,16 +684,16 @@
         <v>511840</v>
       </c>
       <c r="F11">
-        <v>301482</v>
+        <v>281487</v>
       </c>
       <c r="G11">
-        <v>62.33</v>
+        <v>55.89</v>
       </c>
       <c r="H11">
-        <v>192016</v>
+        <v>160906</v>
       </c>
       <c r="I11">
-        <v>60.04</v>
+        <v>45.85</v>
       </c>
     </row>
     <row r="12">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>117910</v>
+        <v>125610</v>
       </c>
       <c r="C12">
-        <v>81187</v>
+        <v>90875</v>
       </c>
       <c r="D12">
         <v>417738</v>
@@ -715,16 +715,16 @@
         <v>184933</v>
       </c>
       <c r="F12">
-        <v>299828</v>
+        <v>292128</v>
       </c>
       <c r="G12">
-        <v>254.29</v>
+        <v>232.57</v>
       </c>
       <c r="H12">
-        <v>103746</v>
+        <v>94058</v>
       </c>
       <c r="I12">
-        <v>127.79</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="13">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>683332</v>
+        <v>773025</v>
       </c>
       <c r="C13">
-        <v>416323</v>
+        <v>507809</v>
       </c>
       <c r="D13">
         <v>2343725</v>
@@ -746,16 +746,16 @@
         <v>874521</v>
       </c>
       <c r="F13">
-        <v>1660393</v>
+        <v>1570700</v>
       </c>
       <c r="G13">
-        <v>242.98</v>
+        <v>203.19</v>
       </c>
       <c r="H13">
-        <v>458198</v>
+        <v>366712</v>
       </c>
       <c r="I13">
-        <v>110.06</v>
+        <v>72.20999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>212177</v>
+        <v>237880</v>
       </c>
       <c r="C14">
-        <v>77498</v>
+        <v>115659</v>
       </c>
       <c r="D14">
         <v>492933</v>
@@ -777,16 +777,16 @@
         <v>29559</v>
       </c>
       <c r="F14">
-        <v>280756</v>
+        <v>255053</v>
       </c>
       <c r="G14">
-        <v>132.32</v>
+        <v>107.22</v>
       </c>
       <c r="H14">
-        <v>-47939</v>
+        <v>-86100</v>
       </c>
       <c r="I14">
-        <v>-61.86</v>
+        <v>-74.44</v>
       </c>
     </row>
     <row r="15">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>202336</v>
+        <v>202337</v>
       </c>
       <c r="C15">
         <v>97195</v>
@@ -808,10 +808,10 @@
         <v>613519</v>
       </c>
       <c r="F15">
-        <v>1375978</v>
+        <v>1375977</v>
       </c>
       <c r="G15">
-        <v>680.05</v>
+        <v>680.04</v>
       </c>
       <c r="H15">
         <v>516324</v>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B16">
-        <v>162389</v>
+        <v>172190</v>
       </c>
       <c r="C16">
-        <v>99685</v>
+        <v>113416</v>
       </c>
       <c r="D16">
         <v>347510</v>
@@ -839,16 +839,16 @@
         <v>130370</v>
       </c>
       <c r="F16">
-        <v>185121</v>
+        <v>175320</v>
       </c>
       <c r="G16">
-        <v>114</v>
+        <v>101.82</v>
       </c>
       <c r="H16">
-        <v>30685</v>
+        <v>16954</v>
       </c>
       <c r="I16">
-        <v>30.78</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="17">
@@ -858,10 +858,10 @@
         </is>
       </c>
       <c r="B17">
-        <v>1020080</v>
+        <v>1035908</v>
       </c>
       <c r="C17">
-        <v>525916</v>
+        <v>572522</v>
       </c>
       <c r="D17">
         <v>2932012</v>
@@ -870,16 +870,16 @@
         <v>1514644</v>
       </c>
       <c r="F17">
-        <v>1911932</v>
+        <v>1896104</v>
       </c>
       <c r="G17">
-        <v>187.43</v>
+        <v>183.04</v>
       </c>
       <c r="H17">
-        <v>988728</v>
+        <v>942122</v>
       </c>
       <c r="I17">
-        <v>188</v>
+        <v>164.56</v>
       </c>
     </row>
     <row r="18">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B18">
-        <v>209337</v>
+        <v>230102</v>
       </c>
       <c r="C18">
-        <v>209304</v>
+        <v>230069</v>
       </c>
       <c r="D18">
         <v>956220</v>
@@ -901,16 +901,16 @@
         <v>956220</v>
       </c>
       <c r="F18">
-        <v>746883</v>
+        <v>726118</v>
       </c>
       <c r="G18">
-        <v>356.78</v>
+        <v>315.56</v>
       </c>
       <c r="H18">
-        <v>746916</v>
+        <v>726151</v>
       </c>
       <c r="I18">
-        <v>356.86</v>
+        <v>315.62</v>
       </c>
     </row>
     <row r="19">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="B19">
-        <v>318405</v>
+        <v>320788</v>
       </c>
       <c r="C19">
-        <v>126640</v>
+        <v>142525</v>
       </c>
       <c r="D19">
         <v>627401</v>
@@ -932,16 +932,16 @@
         <v>148941</v>
       </c>
       <c r="F19">
-        <v>308996</v>
+        <v>306613</v>
       </c>
       <c r="G19">
-        <v>97.04000000000001</v>
+        <v>95.58</v>
       </c>
       <c r="H19">
-        <v>22301</v>
+        <v>6416</v>
       </c>
       <c r="I19">
-        <v>17.61</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B20">
-        <v>928121</v>
+        <v>1074555</v>
       </c>
       <c r="C20">
-        <v>811248</v>
+        <v>962344</v>
       </c>
       <c r="D20">
         <v>1517889</v>
@@ -963,16 +963,16 @@
         <v>1508160</v>
       </c>
       <c r="F20">
-        <v>589768</v>
+        <v>443334</v>
       </c>
       <c r="G20">
-        <v>63.54</v>
+        <v>41.26</v>
       </c>
       <c r="H20">
-        <v>696912</v>
+        <v>545816</v>
       </c>
       <c r="I20">
-        <v>85.91</v>
+        <v>56.72</v>
       </c>
     </row>
     <row r="21">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B21">
-        <v>72393</v>
+        <v>75103</v>
       </c>
       <c r="C21">
-        <v>35685</v>
+        <v>40765</v>
       </c>
       <c r="D21">
         <v>190951</v>
@@ -994,16 +994,16 @@
         <v>91971</v>
       </c>
       <c r="F21">
-        <v>118558</v>
+        <v>115848</v>
       </c>
       <c r="G21">
-        <v>163.77</v>
+        <v>154.25</v>
       </c>
       <c r="H21">
-        <v>56286</v>
+        <v>51206</v>
       </c>
       <c r="I21">
-        <v>157.73</v>
+        <v>125.61</v>
       </c>
     </row>
     <row r="22">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>176377</v>
+        <v>181955</v>
       </c>
       <c r="C22">
-        <v>93272</v>
+        <v>101943</v>
       </c>
       <c r="D22">
         <v>483844</v>
@@ -1025,16 +1025,16 @@
         <v>260240</v>
       </c>
       <c r="F22">
-        <v>307467</v>
+        <v>301889</v>
       </c>
       <c r="G22">
-        <v>174.32</v>
+        <v>165.91</v>
       </c>
       <c r="H22">
-        <v>166968</v>
+        <v>158297</v>
       </c>
       <c r="I22">
-        <v>179.01</v>
+        <v>155.28</v>
       </c>
     </row>
     <row r="23">
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>361458</v>
+        <v>368885</v>
       </c>
       <c r="C23">
-        <v>187171</v>
+        <v>202440</v>
       </c>
       <c r="D23">
         <v>5774974</v>
@@ -1056,16 +1056,16 @@
         <v>1566791</v>
       </c>
       <c r="F23">
-        <v>5413516</v>
+        <v>5406089</v>
       </c>
       <c r="G23">
-        <v>1497.69</v>
+        <v>1465.52</v>
       </c>
       <c r="H23">
-        <v>1379620</v>
+        <v>1364351</v>
       </c>
       <c r="I23">
-        <v>737.09</v>
+        <v>673.9500000000001</v>
       </c>
     </row>
     <row r="24">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="B24">
-        <v>206560</v>
+        <v>237995</v>
       </c>
       <c r="C24">
-        <v>171874</v>
+        <v>205550</v>
       </c>
       <c r="D24">
         <v>490130</v>
@@ -1087,16 +1087,16 @@
         <v>281321</v>
       </c>
       <c r="F24">
-        <v>283570</v>
+        <v>252135</v>
       </c>
       <c r="G24">
-        <v>137.28</v>
+        <v>105.94</v>
       </c>
       <c r="H24">
-        <v>109447</v>
+        <v>75771</v>
       </c>
       <c r="I24">
-        <v>63.68</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="25">
@@ -1106,10 +1106,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>256430</v>
+        <v>301053</v>
       </c>
       <c r="C25">
-        <v>208956</v>
+        <v>254900</v>
       </c>
       <c r="D25">
         <v>1464219</v>
@@ -1118,16 +1118,16 @@
         <v>224548</v>
       </c>
       <c r="F25">
-        <v>1207789</v>
+        <v>1163166</v>
       </c>
       <c r="G25">
-        <v>471</v>
+        <v>386.37</v>
       </c>
       <c r="H25">
-        <v>15592</v>
+        <v>-30352</v>
       </c>
       <c r="I25">
-        <v>7.46</v>
+        <v>-11.91</v>
       </c>
     </row>
     <row r="26">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1409001</v>
+        <v>1441757</v>
       </c>
       <c r="C26">
-        <v>704623</v>
+        <v>800450</v>
       </c>
       <c r="D26">
         <v>2448476</v>
@@ -1149,16 +1149,16 @@
         <v>1100676</v>
       </c>
       <c r="F26">
-        <v>1039475</v>
+        <v>1006719</v>
       </c>
       <c r="G26">
-        <v>73.77</v>
+        <v>69.83</v>
       </c>
       <c r="H26">
-        <v>396053</v>
+        <v>300226</v>
       </c>
       <c r="I26">
-        <v>56.21</v>
+        <v>37.51</v>
       </c>
     </row>
     <row r="27">
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>196700</v>
+        <v>328253</v>
       </c>
       <c r="C28">
-        <v>196629</v>
+        <v>328183</v>
       </c>
       <c r="D28">
         <v>83545</v>
@@ -1193,16 +1193,16 @@
         <v>83545</v>
       </c>
       <c r="F28">
-        <v>-113155</v>
+        <v>-244708</v>
       </c>
       <c r="G28">
-        <v>-57.53</v>
+        <v>-74.55</v>
       </c>
       <c r="H28">
-        <v>-113084</v>
+        <v>-244638</v>
       </c>
       <c r="I28">
-        <v>-57.51</v>
+        <v>-74.54000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>31739</v>
+        <v>32363</v>
       </c>
       <c r="C30">
-        <v>9467</v>
+        <v>11241</v>
       </c>
       <c r="D30">
         <v>207937</v>
@@ -1237,16 +1237,16 @@
         <v>32842</v>
       </c>
       <c r="F30">
-        <v>176198</v>
+        <v>175574</v>
       </c>
       <c r="G30">
-        <v>555.15</v>
+        <v>542.51</v>
       </c>
       <c r="H30">
-        <v>23375</v>
+        <v>21601</v>
       </c>
       <c r="I30">
-        <v>246.91</v>
+        <v>192.16</v>
       </c>
     </row>
     <row r="31">
@@ -1269,10 +1269,10 @@
         </is>
       </c>
       <c r="B32">
-        <v>597327</v>
+        <v>838409</v>
       </c>
       <c r="C32">
-        <v>597300</v>
+        <v>838382</v>
       </c>
       <c r="D32">
         <v>360397</v>
@@ -1281,16 +1281,16 @@
         <v>360397</v>
       </c>
       <c r="F32">
-        <v>-236930</v>
+        <v>-478012</v>
       </c>
       <c r="G32">
-        <v>-39.67</v>
+        <v>-57.01</v>
       </c>
       <c r="H32">
-        <v>-236903</v>
+        <v>-477985</v>
       </c>
       <c r="I32">
-        <v>-39.66</v>
+        <v>-57.01</v>
       </c>
     </row>
     <row r="33">
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>1025506</v>
+        <v>1416680</v>
       </c>
       <c r="C33">
-        <v>985641</v>
+        <v>1383036</v>
       </c>
       <c r="D33">
         <v>3849099</v>
@@ -1312,16 +1312,16 @@
         <v>3849099</v>
       </c>
       <c r="F33">
-        <v>2823593</v>
+        <v>2432419</v>
       </c>
       <c r="G33">
-        <v>275.34</v>
+        <v>171.7</v>
       </c>
       <c r="H33">
-        <v>2863458</v>
+        <v>2466063</v>
       </c>
       <c r="I33">
-        <v>290.52</v>
+        <v>178.31</v>
       </c>
     </row>
     <row r="34">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="B34">
-        <v>990389</v>
+        <v>998026</v>
       </c>
       <c r="C34">
-        <v>134733</v>
+        <v>172500</v>
       </c>
       <c r="D34">
         <v>39350</v>
@@ -1343,16 +1343,16 @@
         <v>39350</v>
       </c>
       <c r="F34">
-        <v>-951039</v>
+        <v>-958676</v>
       </c>
       <c r="G34">
-        <v>-96.03</v>
+        <v>-96.06</v>
       </c>
       <c r="H34">
-        <v>-95383</v>
+        <v>-133150</v>
       </c>
       <c r="I34">
-        <v>-70.79000000000001</v>
+        <v>-77.19</v>
       </c>
     </row>
     <row r="35">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="B35">
-        <v>369798</v>
+        <v>386189</v>
       </c>
       <c r="C35">
-        <v>224386</v>
+        <v>244453</v>
       </c>
       <c r="D35">
         <v>1867449</v>
@@ -1374,16 +1374,16 @@
         <v>1343502</v>
       </c>
       <c r="F35">
-        <v>1497651</v>
+        <v>1481260</v>
       </c>
       <c r="G35">
-        <v>404.99</v>
+        <v>383.56</v>
       </c>
       <c r="H35">
-        <v>1119116</v>
+        <v>1099049</v>
       </c>
       <c r="I35">
-        <v>498.75</v>
+        <v>449.6</v>
       </c>
     </row>
     <row r="36">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B36">
-        <v>56901</v>
+        <v>59705</v>
       </c>
       <c r="C36">
-        <v>34372</v>
+        <v>37585</v>
       </c>
       <c r="D36">
         <v>424364</v>
@@ -1405,16 +1405,16 @@
         <v>137993</v>
       </c>
       <c r="F36">
-        <v>367463</v>
+        <v>364659</v>
       </c>
       <c r="G36">
-        <v>645.79</v>
+        <v>610.77</v>
       </c>
       <c r="H36">
-        <v>103621</v>
+        <v>100408</v>
       </c>
       <c r="I36">
-        <v>301.47</v>
+        <v>267.15</v>
       </c>
     </row>
     <row r="37">
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="B37">
-        <v>409288</v>
+        <v>441148</v>
       </c>
       <c r="C37">
-        <v>344206</v>
+        <v>379398</v>
       </c>
       <c r="D37">
         <v>1359718</v>
@@ -1436,16 +1436,16 @@
         <v>690735</v>
       </c>
       <c r="F37">
-        <v>950430</v>
+        <v>918570</v>
       </c>
       <c r="G37">
-        <v>232.22</v>
+        <v>208.22</v>
       </c>
       <c r="H37">
-        <v>346529</v>
+        <v>311337</v>
       </c>
       <c r="I37">
-        <v>100.67</v>
+        <v>82.06</v>
       </c>
     </row>
     <row r="38">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B38">
-        <v>14276</v>
+        <v>31732</v>
       </c>
       <c r="C38">
-        <v>6978</v>
+        <v>24549</v>
       </c>
       <c r="D38">
         <v>136364</v>
@@ -1467,16 +1467,16 @@
         <v>88661</v>
       </c>
       <c r="F38">
-        <v>122088</v>
+        <v>104632</v>
       </c>
       <c r="G38">
-        <v>855.2000000000001</v>
+        <v>329.74</v>
       </c>
       <c r="H38">
-        <v>81683</v>
+        <v>64112</v>
       </c>
       <c r="I38">
-        <v>1170.58</v>
+        <v>261.16</v>
       </c>
     </row>
     <row r="39">
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="B39">
-        <v>53880</v>
+        <v>55746</v>
       </c>
       <c r="C39">
-        <v>36009</v>
+        <v>38695</v>
       </c>
       <c r="D39">
         <v>101581</v>
@@ -1498,16 +1498,16 @@
         <v>73417</v>
       </c>
       <c r="F39">
-        <v>47701</v>
+        <v>45835</v>
       </c>
       <c r="G39">
-        <v>88.53</v>
+        <v>82.22</v>
       </c>
       <c r="H39">
-        <v>37408</v>
+        <v>34722</v>
       </c>
       <c r="I39">
-        <v>103.89</v>
+        <v>89.73</v>
       </c>
     </row>
   </sheetData>

--- a/output/state_grandtots_bothyears.xlsx
+++ b/output/state_grandtots_bothyears.xlsx
@@ -550,7 +550,7 @@
         <v>-2527743</v>
       </c>
       <c r="G6">
-        <v>-79.87000000000001</v>
+        <v>-79.87</v>
       </c>
       <c r="H6">
         <v>61569</v>
@@ -1065,7 +1065,7 @@
         <v>1364351</v>
       </c>
       <c r="I23">
-        <v>673.9500000000001</v>
+        <v>673.95</v>
       </c>
     </row>
     <row r="24">

--- a/output/state_grandtots_bothyears.xlsx
+++ b/output/state_grandtots_bothyears.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,28 +411,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>36805</v>
+        <v>40537</v>
       </c>
       <c r="C2">
-        <v>19890</v>
+        <v>24307</v>
       </c>
       <c r="D2">
-        <v>120895</v>
+        <v>126522</v>
       </c>
       <c r="E2">
-        <v>31367</v>
+        <v>45889</v>
       </c>
       <c r="F2">
-        <v>84090</v>
+        <v>85985</v>
       </c>
       <c r="G2">
-        <v>228.47</v>
+        <v>212.11</v>
       </c>
       <c r="H2">
-        <v>11477</v>
+        <v>21582</v>
       </c>
       <c r="I2">
-        <v>57.7</v>
+        <v>88.79000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -442,28 +442,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>165505</v>
+        <v>215995</v>
       </c>
       <c r="C3">
-        <v>165490</v>
+        <v>215980</v>
       </c>
       <c r="D3">
-        <v>110889</v>
+        <v>114063</v>
       </c>
       <c r="E3">
-        <v>63568</v>
+        <v>68779</v>
       </c>
       <c r="F3">
-        <v>-54616</v>
+        <v>-101932</v>
       </c>
       <c r="G3">
-        <v>-33</v>
+        <v>-47.19</v>
       </c>
       <c r="H3">
-        <v>-101922</v>
+        <v>-147201</v>
       </c>
       <c r="I3">
-        <v>-61.59</v>
+        <v>-68.15000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -473,28 +473,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>2325694</v>
+        <v>2332640</v>
       </c>
       <c r="C4">
-        <v>802526</v>
+        <v>919654</v>
       </c>
       <c r="D4">
-        <v>3215097</v>
+        <v>3233099</v>
       </c>
       <c r="E4">
-        <v>758720</v>
+        <v>927523</v>
       </c>
       <c r="F4">
-        <v>889403</v>
+        <v>900459</v>
       </c>
       <c r="G4">
-        <v>38.24</v>
+        <v>38.6</v>
       </c>
       <c r="H4">
-        <v>-43806</v>
+        <v>7869</v>
       </c>
       <c r="I4">
-        <v>-5.46</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5">
@@ -504,28 +504,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>10923038</v>
+        <v>10964487</v>
       </c>
       <c r="C5">
-        <v>1821848</v>
+        <v>2050993</v>
       </c>
       <c r="D5">
-        <v>2991473</v>
+        <v>3923785</v>
       </c>
       <c r="E5">
-        <v>2991473</v>
+        <v>3923785</v>
       </c>
       <c r="F5">
-        <v>-7931565</v>
+        <v>-7040702</v>
       </c>
       <c r="G5">
-        <v>-72.61</v>
+        <v>-64.20999999999999</v>
       </c>
       <c r="H5">
-        <v>1169625</v>
+        <v>1872792</v>
       </c>
       <c r="I5">
-        <v>64.2</v>
+        <v>91.31</v>
       </c>
     </row>
     <row r="6">
@@ -535,28 +535,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>3165002</v>
+        <v>3166218</v>
       </c>
       <c r="C6">
-        <v>575690</v>
+        <v>700234</v>
       </c>
       <c r="D6">
-        <v>637259</v>
+        <v>917942</v>
       </c>
       <c r="E6">
-        <v>637259</v>
+        <v>917942</v>
       </c>
       <c r="F6">
-        <v>-2527743</v>
+        <v>-2248276</v>
       </c>
       <c r="G6">
-        <v>-79.87000000000001</v>
+        <v>-71.01000000000001</v>
       </c>
       <c r="H6">
-        <v>61569</v>
+        <v>217708</v>
       </c>
       <c r="I6">
-        <v>10.69</v>
+        <v>31.09</v>
       </c>
     </row>
     <row r="7">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>597025</v>
+        <v>611171</v>
       </c>
       <c r="E7">
-        <v>314259</v>
+        <v>365585</v>
       </c>
     </row>
     <row r="8">
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>19836</v>
+        <v>20538</v>
       </c>
       <c r="C8">
-        <v>14042</v>
+        <v>14839</v>
       </c>
       <c r="D8">
         <v>170167</v>
@@ -591,16 +591,16 @@
         <v>90520</v>
       </c>
       <c r="F8">
-        <v>150331</v>
+        <v>149629</v>
       </c>
       <c r="G8">
-        <v>757.87</v>
+        <v>728.55</v>
       </c>
       <c r="H8">
-        <v>76478</v>
+        <v>75681</v>
       </c>
       <c r="I8">
-        <v>544.64</v>
+        <v>510.01</v>
       </c>
     </row>
     <row r="9">
@@ -610,28 +610,28 @@
         </is>
       </c>
       <c r="B9">
-        <v>4132873</v>
+        <v>4394336</v>
       </c>
       <c r="C9">
-        <v>2443037</v>
+        <v>2832896</v>
       </c>
       <c r="D9">
-        <v>5769408</v>
+        <v>6066784</v>
       </c>
       <c r="E9">
-        <v>2479035</v>
+        <v>2954163</v>
       </c>
       <c r="F9">
-        <v>1636535</v>
+        <v>1672448</v>
       </c>
       <c r="G9">
-        <v>39.6</v>
+        <v>38.06</v>
       </c>
       <c r="H9">
-        <v>35998</v>
+        <v>121267</v>
       </c>
       <c r="I9">
-        <v>1.47</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="10">
@@ -641,28 +641,28 @@
         </is>
       </c>
       <c r="B10">
-        <v>1053153</v>
+        <v>1167786</v>
       </c>
       <c r="C10">
-        <v>949515</v>
+        <v>1066169</v>
       </c>
       <c r="D10">
-        <v>2344264</v>
+        <v>2493877</v>
       </c>
       <c r="E10">
-        <v>1452806</v>
+        <v>1658463</v>
       </c>
       <c r="F10">
-        <v>1291111</v>
+        <v>1326091</v>
       </c>
       <c r="G10">
-        <v>122.59</v>
+        <v>113.56</v>
       </c>
       <c r="H10">
-        <v>503291</v>
+        <v>592294</v>
       </c>
       <c r="I10">
-        <v>53.01</v>
+        <v>55.55</v>
       </c>
     </row>
     <row r="11">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>503686</v>
+        <v>522200</v>
       </c>
       <c r="C11">
-        <v>350934</v>
+        <v>378648</v>
       </c>
       <c r="D11">
         <v>785173</v>
@@ -684,16 +684,16 @@
         <v>511840</v>
       </c>
       <c r="F11">
-        <v>281487</v>
+        <v>262973</v>
       </c>
       <c r="G11">
-        <v>55.89</v>
+        <v>50.36</v>
       </c>
       <c r="H11">
-        <v>160906</v>
+        <v>133192</v>
       </c>
       <c r="I11">
-        <v>45.85</v>
+        <v>35.18</v>
       </c>
     </row>
     <row r="12">
@@ -703,28 +703,28 @@
         </is>
       </c>
       <c r="B12">
-        <v>125610</v>
+        <v>133705</v>
       </c>
       <c r="C12">
-        <v>90875</v>
+        <v>100585</v>
       </c>
       <c r="D12">
-        <v>417738</v>
+        <v>422383</v>
       </c>
       <c r="E12">
-        <v>184933</v>
+        <v>203525</v>
       </c>
       <c r="F12">
-        <v>292128</v>
+        <v>288678</v>
       </c>
       <c r="G12">
-        <v>232.57</v>
+        <v>215.91</v>
       </c>
       <c r="H12">
-        <v>94058</v>
+        <v>102940</v>
       </c>
       <c r="I12">
-        <v>103.5</v>
+        <v>102.34</v>
       </c>
     </row>
     <row r="13">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>773025</v>
+        <v>868029</v>
       </c>
       <c r="C13">
-        <v>507809</v>
+        <v>604297</v>
       </c>
       <c r="D13">
         <v>2343725</v>
@@ -746,16 +746,16 @@
         <v>874521</v>
       </c>
       <c r="F13">
-        <v>1570700</v>
+        <v>1475696</v>
       </c>
       <c r="G13">
-        <v>203.19</v>
+        <v>170.01</v>
       </c>
       <c r="H13">
-        <v>366712</v>
+        <v>270224</v>
       </c>
       <c r="I13">
-        <v>72.20999999999999</v>
+        <v>44.72</v>
       </c>
     </row>
     <row r="14">
@@ -765,749 +765,780 @@
         </is>
       </c>
       <c r="B14">
-        <v>237880</v>
+        <v>262582</v>
       </c>
       <c r="C14">
-        <v>115659</v>
+        <v>152076</v>
       </c>
       <c r="D14">
-        <v>492933</v>
+        <v>508299</v>
       </c>
       <c r="E14">
-        <v>29559</v>
+        <v>76442</v>
       </c>
       <c r="F14">
-        <v>255053</v>
+        <v>245717</v>
       </c>
       <c r="G14">
-        <v>107.22</v>
+        <v>93.58</v>
       </c>
       <c r="H14">
-        <v>-86100</v>
+        <v>-75634</v>
       </c>
       <c r="I14">
-        <v>-74.44</v>
+        <v>-49.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="B15">
-        <v>202337</v>
+        <v>225438</v>
       </c>
       <c r="C15">
-        <v>97195</v>
+        <v>225410</v>
       </c>
       <c r="D15">
-        <v>1578314</v>
+        <v>340868</v>
       </c>
       <c r="E15">
-        <v>613519</v>
+        <v>340868</v>
       </c>
       <c r="F15">
-        <v>1375977</v>
+        <v>115430</v>
       </c>
       <c r="G15">
-        <v>680.04</v>
+        <v>51.2</v>
       </c>
       <c r="H15">
-        <v>516324</v>
+        <v>115458</v>
       </c>
       <c r="I15">
-        <v>531.22</v>
+        <v>51.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="B16">
-        <v>172190</v>
+        <v>330760</v>
       </c>
       <c r="C16">
-        <v>113416</v>
+        <v>228038</v>
       </c>
       <c r="D16">
-        <v>347510</v>
+        <v>1597173</v>
       </c>
       <c r="E16">
-        <v>130370</v>
+        <v>688963</v>
       </c>
       <c r="F16">
-        <v>175320</v>
+        <v>1266413</v>
       </c>
       <c r="G16">
-        <v>101.82</v>
+        <v>382.88</v>
       </c>
       <c r="H16">
-        <v>16954</v>
+        <v>460925</v>
       </c>
       <c r="I16">
-        <v>14.95</v>
+        <v>202.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="B17">
-        <v>1035908</v>
+        <v>181635</v>
       </c>
       <c r="C17">
-        <v>572522</v>
+        <v>125966</v>
       </c>
       <c r="D17">
-        <v>2932012</v>
+        <v>402352</v>
       </c>
       <c r="E17">
-        <v>1514644</v>
+        <v>271863</v>
       </c>
       <c r="F17">
-        <v>1896104</v>
+        <v>220717</v>
       </c>
       <c r="G17">
-        <v>183.04</v>
+        <v>121.52</v>
       </c>
       <c r="H17">
-        <v>942122</v>
+        <v>145897</v>
       </c>
       <c r="I17">
-        <v>164.56</v>
+        <v>115.82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="B18">
-        <v>230102</v>
+        <v>1052138</v>
       </c>
       <c r="C18">
-        <v>230069</v>
+        <v>617268</v>
       </c>
       <c r="D18">
-        <v>956220</v>
+        <v>3002444</v>
       </c>
       <c r="E18">
-        <v>956220</v>
+        <v>1694413</v>
       </c>
       <c r="F18">
-        <v>726118</v>
+        <v>1950306</v>
       </c>
       <c r="G18">
-        <v>315.56</v>
+        <v>185.37</v>
       </c>
       <c r="H18">
-        <v>726151</v>
+        <v>1077145</v>
       </c>
       <c r="I18">
-        <v>315.62</v>
+        <v>174.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="B19">
-        <v>320788</v>
+        <v>252636</v>
       </c>
       <c r="C19">
-        <v>142525</v>
+        <v>252603</v>
       </c>
       <c r="D19">
-        <v>627401</v>
+        <v>1023646</v>
       </c>
       <c r="E19">
-        <v>148941</v>
+        <v>1023646</v>
       </c>
       <c r="F19">
-        <v>306613</v>
+        <v>771010</v>
       </c>
       <c r="G19">
-        <v>95.58</v>
+        <v>305.19</v>
       </c>
       <c r="H19">
-        <v>6416</v>
+        <v>771043</v>
       </c>
       <c r="I19">
-        <v>4.5</v>
+        <v>305.24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B20">
-        <v>1074555</v>
+        <v>323097</v>
       </c>
       <c r="C20">
-        <v>962344</v>
+        <v>163995</v>
       </c>
       <c r="D20">
-        <v>1517889</v>
+        <v>630582</v>
       </c>
       <c r="E20">
-        <v>1508160</v>
+        <v>185978</v>
       </c>
       <c r="F20">
-        <v>443334</v>
+        <v>307485</v>
       </c>
       <c r="G20">
-        <v>41.26</v>
+        <v>95.17</v>
       </c>
       <c r="H20">
-        <v>545816</v>
+        <v>21983</v>
       </c>
       <c r="I20">
-        <v>56.72</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ND</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="B21">
-        <v>75103</v>
+        <v>1311769</v>
       </c>
       <c r="C21">
-        <v>40765</v>
+        <v>1203096</v>
       </c>
       <c r="D21">
-        <v>190951</v>
+        <v>1839773</v>
       </c>
       <c r="E21">
-        <v>91971</v>
+        <v>1829433</v>
       </c>
       <c r="F21">
-        <v>115848</v>
+        <v>528004</v>
       </c>
       <c r="G21">
-        <v>154.25</v>
+        <v>40.25</v>
       </c>
       <c r="H21">
-        <v>51206</v>
+        <v>626337</v>
       </c>
       <c r="I21">
-        <v>125.61</v>
+        <v>52.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="B22">
-        <v>181955</v>
+        <v>77686</v>
       </c>
       <c r="C22">
-        <v>101943</v>
+        <v>45214</v>
       </c>
       <c r="D22">
-        <v>483844</v>
+        <v>194931</v>
       </c>
       <c r="E22">
-        <v>260240</v>
+        <v>104270</v>
       </c>
       <c r="F22">
-        <v>301889</v>
+        <v>117245</v>
       </c>
       <c r="G22">
-        <v>165.91</v>
+        <v>150.92</v>
       </c>
       <c r="H22">
-        <v>158297</v>
+        <v>59056</v>
       </c>
       <c r="I22">
-        <v>155.28</v>
+        <v>130.61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B23">
-        <v>368885</v>
+        <v>187886</v>
       </c>
       <c r="C23">
-        <v>202440</v>
+        <v>109959</v>
       </c>
       <c r="D23">
-        <v>5774974</v>
+        <v>490240</v>
       </c>
       <c r="E23">
-        <v>1566791</v>
+        <v>285581</v>
       </c>
       <c r="F23">
-        <v>5406089</v>
+        <v>302354</v>
       </c>
       <c r="G23">
-        <v>1465.52</v>
+        <v>160.92</v>
       </c>
       <c r="H23">
-        <v>1364351</v>
+        <v>175622</v>
       </c>
       <c r="I23">
-        <v>673.9500000000001</v>
+        <v>159.72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B24">
-        <v>237995</v>
+        <v>376161</v>
       </c>
       <c r="C24">
-        <v>205550</v>
+        <v>214216</v>
       </c>
       <c r="D24">
-        <v>490130</v>
+        <v>5802187</v>
       </c>
       <c r="E24">
-        <v>281321</v>
+        <v>1686290</v>
       </c>
       <c r="F24">
-        <v>252135</v>
+        <v>5426026</v>
       </c>
       <c r="G24">
-        <v>105.94</v>
+        <v>1442.47</v>
       </c>
       <c r="H24">
-        <v>75771</v>
+        <v>1472074</v>
       </c>
       <c r="I24">
-        <v>36.86</v>
+        <v>687.1900000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="B25">
-        <v>301053</v>
+        <v>267791</v>
       </c>
       <c r="C25">
-        <v>254900</v>
+        <v>237733</v>
       </c>
       <c r="D25">
-        <v>1464219</v>
+        <v>523961</v>
       </c>
       <c r="E25">
-        <v>224548</v>
+        <v>339043</v>
       </c>
       <c r="F25">
-        <v>1163166</v>
+        <v>256170</v>
       </c>
       <c r="G25">
-        <v>386.37</v>
+        <v>95.66</v>
       </c>
       <c r="H25">
-        <v>-30352</v>
+        <v>101310</v>
       </c>
       <c r="I25">
-        <v>-11.91</v>
+        <v>42.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="B26">
-        <v>1441757</v>
+        <v>341914</v>
       </c>
       <c r="C26">
-        <v>800450</v>
+        <v>300397</v>
       </c>
       <c r="D26">
-        <v>2448476</v>
+        <v>1479497</v>
       </c>
       <c r="E26">
-        <v>1100676</v>
+        <v>270000</v>
       </c>
       <c r="F26">
-        <v>1006719</v>
+        <v>1137583</v>
       </c>
       <c r="G26">
-        <v>69.83</v>
+        <v>332.71</v>
       </c>
       <c r="H26">
-        <v>300226</v>
+        <v>-30397</v>
       </c>
       <c r="I26">
-        <v>37.51</v>
+        <v>-10.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OK</t>
-        </is>
+          <t>OH</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>1473264</v>
+      </c>
+      <c r="C27">
+        <v>892798</v>
       </c>
       <c r="D27">
-        <v>310745</v>
+        <v>2500962</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1264667</v>
+      </c>
+      <c r="F27">
+        <v>1027698</v>
+      </c>
+      <c r="G27">
+        <v>69.76000000000001</v>
+      </c>
+      <c r="H27">
+        <v>371869</v>
+      </c>
+      <c r="I27">
+        <v>41.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OR</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>328253</v>
-      </c>
-      <c r="C28">
-        <v>328183</v>
+          <t>OK</t>
+        </is>
       </c>
       <c r="D28">
-        <v>83545</v>
+        <v>317441</v>
       </c>
       <c r="E28">
-        <v>83545</v>
-      </c>
-      <c r="F28">
-        <v>-244708</v>
-      </c>
-      <c r="G28">
-        <v>-74.55</v>
-      </c>
-      <c r="H28">
-        <v>-244638</v>
-      </c>
-      <c r="I28">
-        <v>-74.54000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PA</t>
-        </is>
+          <t>OR</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>444899</v>
+      </c>
+      <c r="C29">
+        <v>444829</v>
       </c>
       <c r="D29">
-        <v>2806043</v>
+        <v>274866</v>
       </c>
       <c r="E29">
-        <v>895984</v>
+        <v>274866</v>
+      </c>
+      <c r="F29">
+        <v>-170033</v>
+      </c>
+      <c r="G29">
+        <v>-38.22</v>
+      </c>
+      <c r="H29">
+        <v>-169963</v>
+      </c>
+      <c r="I29">
+        <v>-38.21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RI</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>32363</v>
-      </c>
-      <c r="C30">
-        <v>11241</v>
+          <t>PA</t>
+        </is>
       </c>
       <c r="D30">
-        <v>207937</v>
+        <v>2836018</v>
       </c>
       <c r="E30">
-        <v>32842</v>
-      </c>
-      <c r="F30">
-        <v>175574</v>
-      </c>
-      <c r="G30">
-        <v>542.51</v>
-      </c>
-      <c r="H30">
-        <v>21601</v>
-      </c>
-      <c r="I30">
-        <v>192.16</v>
+        <v>1024804</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SD</t>
-        </is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>33020</v>
+      </c>
+      <c r="C31">
+        <v>12875</v>
       </c>
       <c r="D31">
-        <v>167999</v>
+        <v>216835</v>
       </c>
       <c r="E31">
-        <v>130238</v>
+        <v>41757</v>
+      </c>
+      <c r="F31">
+        <v>183815</v>
+      </c>
+      <c r="G31">
+        <v>556.68</v>
+      </c>
+      <c r="H31">
+        <v>28882</v>
+      </c>
+      <c r="I31">
+        <v>224.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>838409</v>
-      </c>
-      <c r="C32">
-        <v>838382</v>
+          <t>SD</t>
+        </is>
       </c>
       <c r="D32">
-        <v>360397</v>
+        <v>171622</v>
       </c>
       <c r="E32">
-        <v>360397</v>
-      </c>
-      <c r="F32">
-        <v>-478012</v>
-      </c>
-      <c r="G32">
-        <v>-57.01</v>
-      </c>
-      <c r="H32">
-        <v>-477985</v>
-      </c>
-      <c r="I32">
-        <v>-57.01</v>
+        <v>137187</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B33">
-        <v>1416680</v>
+        <v>942946</v>
       </c>
       <c r="C33">
-        <v>1383036</v>
+        <v>942919</v>
       </c>
       <c r="D33">
-        <v>3849099</v>
+        <v>810217</v>
       </c>
       <c r="E33">
-        <v>3849099</v>
+        <v>810217</v>
       </c>
       <c r="F33">
-        <v>2432419</v>
+        <v>-132729</v>
       </c>
       <c r="G33">
-        <v>171.7</v>
+        <v>-14.08</v>
       </c>
       <c r="H33">
-        <v>2466063</v>
+        <v>-132702</v>
       </c>
       <c r="I33">
-        <v>178.31</v>
+        <v>-14.07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="B34">
-        <v>998026</v>
+        <v>1790826</v>
       </c>
       <c r="C34">
-        <v>172500</v>
+        <v>1762855</v>
       </c>
       <c r="D34">
-        <v>39350</v>
+        <v>4375786</v>
       </c>
       <c r="E34">
-        <v>39350</v>
+        <v>4375786</v>
       </c>
       <c r="F34">
-        <v>-958676</v>
+        <v>2584960</v>
       </c>
       <c r="G34">
-        <v>-96.06</v>
+        <v>144.34</v>
       </c>
       <c r="H34">
-        <v>-133150</v>
+        <v>2612931</v>
       </c>
       <c r="I34">
-        <v>-77.19</v>
+        <v>148.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="B35">
-        <v>386189</v>
+        <v>1007467</v>
       </c>
       <c r="C35">
-        <v>244453</v>
+        <v>214185</v>
       </c>
       <c r="D35">
-        <v>1867449</v>
+        <v>93716</v>
       </c>
       <c r="E35">
-        <v>1343502</v>
+        <v>93716</v>
       </c>
       <c r="F35">
-        <v>1481260</v>
+        <v>-913751</v>
       </c>
       <c r="G35">
-        <v>383.56</v>
+        <v>-90.7</v>
       </c>
       <c r="H35">
-        <v>1099049</v>
+        <v>-120469</v>
       </c>
       <c r="I35">
-        <v>449.6</v>
+        <v>-56.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="B36">
-        <v>59705</v>
+        <v>403298</v>
       </c>
       <c r="C36">
-        <v>37585</v>
+        <v>265421</v>
       </c>
       <c r="D36">
-        <v>424364</v>
+        <v>1921763</v>
       </c>
       <c r="E36">
-        <v>137993</v>
+        <v>1426533</v>
       </c>
       <c r="F36">
-        <v>364659</v>
+        <v>1518465</v>
       </c>
       <c r="G36">
-        <v>610.77</v>
+        <v>376.51</v>
       </c>
       <c r="H36">
-        <v>100408</v>
+        <v>1161112</v>
       </c>
       <c r="I36">
-        <v>267.15</v>
+        <v>437.46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>VT</t>
         </is>
       </c>
       <c r="B37">
-        <v>441148</v>
+        <v>62679</v>
       </c>
       <c r="C37">
-        <v>379398</v>
+        <v>40905</v>
       </c>
       <c r="D37">
-        <v>1359718</v>
+        <v>424723</v>
       </c>
       <c r="E37">
-        <v>690735</v>
+        <v>151764</v>
       </c>
       <c r="F37">
-        <v>918570</v>
+        <v>362044</v>
       </c>
       <c r="G37">
-        <v>208.22</v>
+        <v>577.62</v>
       </c>
       <c r="H37">
-        <v>311337</v>
+        <v>110859</v>
       </c>
       <c r="I37">
-        <v>82.06</v>
+        <v>271.02</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WV</t>
+          <t>WI</t>
         </is>
       </c>
       <c r="B38">
-        <v>31732</v>
+        <v>478829</v>
       </c>
       <c r="C38">
-        <v>24549</v>
+        <v>419525</v>
       </c>
       <c r="D38">
-        <v>136364</v>
+        <v>1376055</v>
       </c>
       <c r="E38">
-        <v>88661</v>
+        <v>751288</v>
       </c>
       <c r="F38">
-        <v>104632</v>
+        <v>897226</v>
       </c>
       <c r="G38">
-        <v>329.74</v>
+        <v>187.38</v>
       </c>
       <c r="H38">
-        <v>64112</v>
+        <v>331763</v>
       </c>
       <c r="I38">
-        <v>261.16</v>
+        <v>79.08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>WV</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>51412</v>
+      </c>
+      <c r="C39">
+        <v>44368</v>
+      </c>
+      <c r="D39">
+        <v>138943</v>
+      </c>
+      <c r="E39">
+        <v>95038</v>
+      </c>
+      <c r="F39">
+        <v>87531</v>
+      </c>
+      <c r="G39">
+        <v>170.25</v>
+      </c>
+      <c r="H39">
+        <v>50670</v>
+      </c>
+      <c r="I39">
+        <v>114.2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>WY</t>
         </is>
       </c>
-      <c r="B39">
-        <v>55746</v>
-      </c>
-      <c r="C39">
-        <v>38695</v>
-      </c>
-      <c r="D39">
-        <v>101581</v>
-      </c>
-      <c r="E39">
-        <v>73417</v>
-      </c>
-      <c r="F39">
-        <v>45835</v>
-      </c>
-      <c r="G39">
-        <v>82.22</v>
-      </c>
-      <c r="H39">
-        <v>34722</v>
-      </c>
-      <c r="I39">
-        <v>89.73</v>
+      <c r="B40">
+        <v>57610</v>
+      </c>
+      <c r="C40">
+        <v>41737</v>
+      </c>
+      <c r="D40">
+        <v>104263</v>
+      </c>
+      <c r="E40">
+        <v>79037</v>
+      </c>
+      <c r="F40">
+        <v>46653</v>
+      </c>
+      <c r="G40">
+        <v>80.98</v>
+      </c>
+      <c r="H40">
+        <v>37300</v>
+      </c>
+      <c r="I40">
+        <v>89.37000000000001</v>
       </c>
     </row>
   </sheetData>
